--- a/config/PacManLevels【吃豆人关卡配置】.xlsx
+++ b/config/PacManLevels【吃豆人关卡配置】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19720"/>
+    <workbookView windowWidth="25360" windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="PacManLevels" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>导出/server</t>
   </si>
@@ -28,7 +28,22 @@
     <t>编号</t>
   </si>
   <si>
-    <t>移动时间间隔</t>
+    <t>吃豆人速度</t>
+  </si>
+  <si>
+    <t>恐惧吃豆人速度</t>
+  </si>
+  <si>
+    <t>鬼速度</t>
+  </si>
+  <si>
+    <t>鬼隧道速度</t>
+  </si>
+  <si>
+    <t>恐惧鬼速度</t>
+  </si>
+  <si>
+    <t>恐惧时间</t>
   </si>
   <si>
     <t>uint</t>
@@ -40,13 +55,31 @@
     <t>id</t>
   </si>
   <si>
-    <t>MoveInterval</t>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>BeanMoveSpeed</t>
+  </si>
+  <si>
+    <t>EnergyMoveSpeed</t>
+  </si>
+  <si>
+    <t>GhostSpeed</t>
+  </si>
+  <si>
+    <t>GhostTunnelMoveSpeed</t>
+  </si>
+  <si>
+    <t>EnergyGhostSpeed</t>
+  </si>
+  <si>
+    <t>EnergyTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1043,18 +1076,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="17.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="24.2857142857143" customWidth="1"/>
+    <col min="8" max="9" width="17.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,8 +1101,26 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1075,8 +1130,26 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,42 +1159,113 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1129,11 +1273,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1141,11 +1302,28 @@
         <v>3</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1153,11 +1331,28 @@
         <v>4</v>
       </c>
       <c r="C9" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.55</v>
+      </c>
+      <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1165,11 +1360,28 @@
         <v>5</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1177,11 +1389,28 @@
         <v>6</v>
       </c>
       <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1189,11 +1418,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="6">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1201,11 +1447,28 @@
         <v>8</v>
       </c>
       <c r="C13" s="6">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1213,11 +1476,28 @@
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -1225,9 +1505,345 @@
         <v>10</v>
       </c>
       <c r="C15" s="6">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/PacManLevels【吃豆人关卡配置】.xlsx
+++ b/config/PacManLevels【吃豆人关卡配置】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25360" windowHeight="19720"/>
+    <workbookView windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="PacManLevels" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
   <si>
     <t>导出/server</t>
   </si>
@@ -46,6 +46,18 @@
     <t>恐惧时间</t>
   </si>
   <si>
+    <t>幽灵离开1</t>
+  </si>
+  <si>
+    <t>幽灵速度1</t>
+  </si>
+  <si>
+    <t>幽灵离开2</t>
+  </si>
+  <si>
+    <t>幽灵速度2</t>
+  </si>
+  <si>
     <t>uint</t>
   </si>
   <si>
@@ -74,6 +86,18 @@
   </si>
   <si>
     <t>EnergyTime</t>
+  </si>
+  <si>
+    <t>DotsLeft1</t>
+  </si>
+  <si>
+    <t>GhostSpeed1</t>
+  </si>
+  <si>
+    <t>DotsLeft2</t>
+  </si>
+  <si>
+    <t>GhostSpeed2</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1089,9 +1113,13 @@
     <col min="6" max="6" width="17.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="24.2857142857143" customWidth="1"/>
     <col min="8" max="9" width="17.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="14.7321428571429" customWidth="1"/>
+    <col min="11" max="11" width="17.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="10.0714285714286" customWidth="1"/>
+    <col min="13" max="13" width="13.7857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1147,20 @@
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1148,8 +1188,20 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1177,66 +1229,102 @@
       <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1264,8 +1352,20 @@
       <c r="I6" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1293,8 +1393,20 @@
       <c r="I7" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1322,8 +1434,20 @@
       <c r="I8" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1351,8 +1475,20 @@
       <c r="I9" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>0.9</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1380,8 +1516,20 @@
       <c r="I10" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1409,8 +1557,20 @@
       <c r="I11" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1438,8 +1598,20 @@
       <c r="I12" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1467,8 +1639,20 @@
       <c r="I13" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -1496,8 +1680,20 @@
       <c r="I14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -1525,8 +1721,20 @@
       <c r="I15" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1554,8 +1762,20 @@
       <c r="I16" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -1583,8 +1803,20 @@
       <c r="I17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>80</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -1612,8 +1844,20 @@
       <c r="I18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>80</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1641,8 +1885,20 @@
       <c r="I19" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1670,8 +1926,20 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>100</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -1699,8 +1967,20 @@
       <c r="I21" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -1728,8 +2008,20 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1757,8 +2049,20 @@
       <c r="I23" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -1786,8 +2090,20 @@
       <c r="I24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
@@ -1815,8 +2131,20 @@
       <c r="I25" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>120</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -1843,6 +2171,18 @@
       </c>
       <c r="I26" s="6">
         <v>1</v>
+      </c>
+      <c r="J26">
+        <v>120</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
